--- a/Dataforexpreiment/图/1交易大小变化的时间复杂度.xlsx
+++ b/Dataforexpreiment/图/1交易大小变化的时间复杂度.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>交易大小</t>
   </si>
   <si>
     <t>分片成员数量</t>
-  </si>
-  <si>
-    <t>δ</t>
   </si>
   <si>
     <t>Δ</t>
@@ -59,8 +56,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -530,16 +527,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,7 +990,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1017,35 +1014,33 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1055,42 +1050,32 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2">
-        <f>SUM(D2*6+C2*6)</f>
         <v>668.2884</v>
       </c>
       <c r="F2">
-        <f>SUM(D2*15+C2*9)</f>
         <v>1602.4326</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(D2*15+C2*8)</f>
         <v>1591.0512</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(D2*10+C2*6)</f>
         <v>1068.2884</v>
       </c>
       <c r="I2">
-        <f>SUM(D2*9+C2*6)</f>
         <v>968.2884</v>
       </c>
       <c r="J2">
-        <f>SUM(D2*19+C2*9)</f>
         <v>2002.4326</v>
       </c>
       <c r="K2">
-        <f>SUM(D2*19+C2*8)</f>
         <v>1991.0512</v>
       </c>
       <c r="L2">
-        <f>SUM(D2*14+C2*6)</f>
         <v>1468.2884</v>
       </c>
     </row>
@@ -1101,42 +1086,32 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>12.2397</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E10" si="0">SUM(D3*6+C3*6)</f>
         <v>673.4382</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F10" si="1">SUM(D3*15+C3*9)</f>
         <v>1610.1573</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G10" si="2">SUM(D3*15+C3*8)</f>
         <v>1597.9176</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H10" si="3">SUM(D3*10+C3*6)</f>
         <v>1073.4382</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="4">SUM(D3*9+C3*6)</f>
         <v>973.4382</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J10" si="5">SUM(D3*19+C3*9)</f>
         <v>2010.1573</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K10" si="6">SUM(D3*19+C3*8)</f>
         <v>1997.9176</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="7">SUM(D3*14+C3*6)</f>
         <v>1473.4382</v>
       </c>
     </row>
@@ -1147,42 +1122,32 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>16.1456</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>696.8736</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
         <v>1645.3104</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="2"/>
         <v>1629.1648</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="3"/>
         <v>1096.8736</v>
       </c>
       <c r="I4">
-        <f t="shared" si="4"/>
         <v>996.8736</v>
       </c>
       <c r="J4">
-        <f t="shared" si="5"/>
         <v>2045.3104</v>
       </c>
       <c r="K4">
-        <f t="shared" si="6"/>
         <v>2029.1648</v>
       </c>
       <c r="L4">
-        <f t="shared" si="7"/>
         <v>1496.8736</v>
       </c>
     </row>
@@ -1193,42 +1158,32 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>20.4618</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5">
         <v>100</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>722.7708</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
         <v>1684.1562</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
         <v>1663.6944</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
         <v>1122.7708</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
         <v>1022.7708</v>
       </c>
       <c r="J5">
-        <f t="shared" si="5"/>
         <v>2084.1562</v>
       </c>
       <c r="K5">
-        <f t="shared" si="6"/>
         <v>2063.6944</v>
       </c>
       <c r="L5">
-        <f t="shared" si="7"/>
         <v>1522.7708</v>
       </c>
     </row>
@@ -1239,42 +1194,32 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>25.0648</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>750.3888</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
         <v>1725.5832</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
         <v>1700.5184</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
         <v>1150.3888</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
         <v>1050.3888</v>
       </c>
       <c r="J6">
-        <f t="shared" si="5"/>
         <v>2125.5832</v>
       </c>
       <c r="K6">
-        <f t="shared" si="6"/>
         <v>2100.5184</v>
       </c>
       <c r="L6">
-        <f t="shared" si="7"/>
         <v>1550.3888</v>
       </c>
     </row>
@@ -1285,42 +1230,32 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>27.5946</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>765.5676</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
         <v>1748.3514</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="2"/>
         <v>1720.7568</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
         <v>1165.5676</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
         <v>1065.5676</v>
       </c>
       <c r="J7">
-        <f t="shared" si="5"/>
         <v>2148.3514</v>
       </c>
       <c r="K7">
-        <f t="shared" si="6"/>
         <v>2120.7568</v>
       </c>
       <c r="L7">
-        <f t="shared" si="7"/>
         <v>1565.5676</v>
       </c>
     </row>
@@ -1331,42 +1266,32 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <v>29.0594</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>774.3564</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
         <v>1761.5346</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
         <v>1732.4752</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
         <v>1174.3564</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
         <v>1074.3564</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
         <v>2161.5346</v>
       </c>
       <c r="K8">
-        <f t="shared" si="6"/>
         <v>2132.4752</v>
       </c>
       <c r="L8">
-        <f t="shared" si="7"/>
         <v>1574.3564</v>
       </c>
     </row>
@@ -1377,42 +1302,32 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
-        <v>30.063</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>780.378</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
         <v>1770.567</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="2"/>
         <v>1740.504</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
         <v>1180.378</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
         <v>1080.378</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
         <v>2170.567</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
         <v>2140.504</v>
       </c>
       <c r="L9">
-        <f t="shared" si="7"/>
         <v>1580.378</v>
       </c>
     </row>
@@ -1423,42 +1338,32 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
-        <v>31.2346</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>787.4076</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
         <v>1781.1114</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="2"/>
         <v>1749.8768</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
         <v>1187.4076</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
         <v>1087.4076</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
         <v>2181.1114</v>
       </c>
       <c r="K10">
-        <f t="shared" si="6"/>
         <v>2149.8768</v>
       </c>
       <c r="L10">
-        <f t="shared" si="7"/>
         <v>1587.4076</v>
       </c>
     </row>
